--- a/storage/app/marcas.xlsx
+++ b/storage/app/marcas.xlsx
@@ -20,10 +20,10 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>Marca 12</t>
+    <t>Sony</t>
   </si>
   <si>
-    <t>Sony</t>
+    <t>LG</t>
   </si>
 </sst>
 </file>
